--- a/data/EPNM/interim/model_parameters/sector_labels_names.xlsx
+++ b/data/EPNM/interim/model_parameters/sector_labels_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="NACE64" sheetId="1" state="visible" r:id="rId2"/>
@@ -428,23 +428,7 @@
     <t xml:space="preserve">CC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of wood and of products of wood and cork, except furniture; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of paper and paper products; Printing and reproduction of recorded media</t>
-    </r>
+    <t xml:space="preserve">Manufacture of wood and of products of wood and cork, except furniture; Manufacture of paper and paper products; Printing and reproduction of recorded media</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -459,45 +443,13 @@
     <t xml:space="preserve">CG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of rubber and plastic products; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of other non-metallic mineral products</t>
-    </r>
+    <t xml:space="preserve">Manufacture of rubber and plastic products; Manufacture of other non-metallic mineral products</t>
   </si>
   <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of basic metals; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Manufacture of fabricated metal products, except machinery and equipment</t>
-    </r>
+    <t xml:space="preserve">Manufacture of basic metals; Manufacture of fabricated metal products, except machinery and equipment</t>
   </si>
   <si>
     <t xml:space="preserve">CI</t>
@@ -711,7 +663,7 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
-    <t xml:space="preserve">B, C, D, E</t>
+    <t xml:space="preserve">B-C-D-E</t>
   </si>
   <si>
     <t xml:space="preserve">Mining; Manufacturing; Utilities</t>
@@ -732,13 +684,13 @@
     <t xml:space="preserve">Professional, scientific and technical activities; Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">O, P, Q</t>
+    <t xml:space="preserve">O-P-Q</t>
   </si>
   <si>
     <t xml:space="preserve">Public administration and defense; Education; Human health and social work</t>
   </si>
   <si>
-    <t xml:space="preserve">R, S, T</t>
+    <t xml:space="preserve">R-S-T</t>
   </si>
   <si>
     <t xml:space="preserve">Arts, entertainment and recreation; Other services; Households as employers</t>
@@ -781,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -802,11 +754,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -883,11 +830,11 @@
   </sheetPr>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -898,7 +845,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -906,7 +853,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -914,7 +861,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -922,7 +869,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -930,7 +877,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -938,7 +885,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -946,7 +893,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -954,7 +901,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -962,7 +909,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -970,7 +917,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -978,7 +925,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -986,7 +933,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -994,7 +941,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1002,7 +949,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1010,7 +957,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1018,7 +965,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1026,7 +973,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1034,7 +981,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1042,7 +989,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1050,7 +997,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1058,7 +1005,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1066,7 +1013,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1074,7 +1021,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1082,7 +1029,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1090,7 +1037,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1098,7 +1045,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1106,7 +1053,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1114,7 +1061,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1122,7 +1069,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1130,7 +1077,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1138,7 +1085,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1146,7 +1093,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1154,7 +1101,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1162,7 +1109,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1170,7 +1117,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1178,7 +1125,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1186,7 +1133,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1194,7 +1141,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1202,7 +1149,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1210,7 +1157,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1218,7 +1165,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1226,7 +1173,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1234,7 +1181,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1242,7 +1189,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1250,7 +1197,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1258,7 +1205,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1266,7 +1213,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1274,7 +1221,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1282,7 +1229,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1290,7 +1237,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1298,7 +1245,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1306,7 +1253,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1314,7 +1261,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1322,7 +1269,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1330,7 +1277,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1338,7 +1285,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1346,7 +1293,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1354,7 +1301,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1362,7 +1309,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1370,7 +1317,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1378,7 +1325,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1386,7 +1333,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1394,7 +1341,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1423,18 +1370,18 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1442,7 +1389,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1450,7 +1397,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1458,7 +1405,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1466,7 +1413,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1474,7 +1421,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1482,7 +1429,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1490,7 +1437,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1498,7 +1445,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1506,7 +1453,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1514,7 +1461,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1522,7 +1469,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1530,7 +1477,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1538,23 +1485,23 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1562,7 +1509,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1570,7 +1517,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1578,7 +1525,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1586,7 +1533,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1594,7 +1541,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1602,31 +1549,31 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1634,7 +1581,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1642,7 +1589,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1650,23 +1597,23 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1674,7 +1621,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1682,7 +1629,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1690,23 +1637,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1714,7 +1661,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1722,7 +1669,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1751,18 +1698,18 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1770,7 +1717,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1778,7 +1725,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1786,7 +1733,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1794,7 +1741,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1802,7 +1749,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1810,7 +1757,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1818,7 +1765,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1826,7 +1773,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1834,7 +1781,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1842,7 +1789,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1850,7 +1797,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1858,7 +1805,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1866,7 +1813,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1874,7 +1821,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1882,7 +1829,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1890,7 +1837,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1898,7 +1845,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1906,7 +1853,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1914,7 +1861,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1940,21 +1887,21 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1962,7 +1909,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1970,7 +1917,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1978,7 +1925,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1986,7 +1933,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1994,7 +1941,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2002,7 +1949,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2010,7 +1957,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2018,7 +1965,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2026,7 +1973,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2051,22 +1998,22 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2074,7 +2021,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2082,7 +2029,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2090,7 +2037,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2098,7 +2045,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2106,7 +2053,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2114,7 +2061,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2122,7 +2069,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2130,7 +2077,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2138,7 +2085,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2146,7 +2093,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2154,7 +2101,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2162,7 +2109,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2170,7 +2117,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2178,7 +2125,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2186,7 +2133,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2194,7 +2141,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2202,7 +2149,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2210,7 +2157,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2218,7 +2165,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2226,7 +2173,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2234,7 +2181,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2242,7 +2189,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2250,7 +2197,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2258,7 +2205,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2266,7 +2213,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2274,7 +2221,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2282,7 +2229,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2290,7 +2237,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2298,7 +2245,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2306,7 +2253,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2314,7 +2261,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2322,7 +2269,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2330,7 +2277,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2338,7 +2285,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2346,7 +2293,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2354,7 +2301,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2362,7 +2309,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2370,7 +2317,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2378,7 +2325,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2386,7 +2333,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2394,7 +2341,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2402,7 +2349,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2410,7 +2357,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2418,7 +2365,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2426,7 +2373,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2434,7 +2381,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2442,7 +2389,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2450,7 +2397,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2458,7 +2405,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2467,7 +2414,7 @@
       <c r="C51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2476,7 +2423,7 @@
       <c r="C52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2485,7 +2432,7 @@
       <c r="C53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2494,7 +2441,7 @@
       <c r="C54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2503,7 +2450,7 @@
       <c r="C55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B56" s="1" t="s">
